--- a/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\HANANI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFC6A55-9A03-404B-AB9C-CED0F7578382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8546551-35D3-4C02-861D-47D12E1C88CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,12 +929,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,23 +946,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,58 +1007,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,8 +1296,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:D71"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1320,11 +1320,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="71" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="76" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -1333,8 +1333,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1352,11 +1352,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="76" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="50"/>
@@ -1384,11 +1384,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="69">
+      <c r="D3" s="53"/>
+      <c r="E3" s="78">
         <v>5000</v>
       </c>
       <c r="F3" s="50"/>
@@ -1420,12 +1420,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1454,11 +1454,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64">
+      <c r="D5" s="53"/>
+      <c r="E5" s="80">
         <v>21.3</v>
       </c>
       <c r="F5" s="50"/>
@@ -1486,11 +1486,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64">
+      <c r="D6" s="68"/>
+      <c r="E6" s="80">
         <v>61.9</v>
       </c>
       <c r="F6" s="50"/>
@@ -1522,12 +1522,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="82">
         <v>21.5092</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
       <c r="I7" s="3"/>
@@ -1554,11 +1554,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1586,11 +1586,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1618,12 +1618,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="85">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0032000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1647,12 +1647,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1678,10 +1678,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="50"/>
       <c r="E12" s="8">
         <v>5000</v>
@@ -1713,7 +1713,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -1747,10 +1747,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="86">
         <v>5001.87</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5017.8759840000002</v>
@@ -1782,10 +1782,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="86">
         <v>5002.18</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5018.1869760000009</v>
@@ -1817,10 +1817,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="86">
         <v>5003.75</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5019.7620000000006</v>
@@ -1852,10 +1852,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="86">
         <v>5007.58</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5023.6042560000005</v>
@@ -1887,10 +1887,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="86">
         <v>5004.28</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.2936960000006</v>
@@ -1922,10 +1922,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="86">
         <v>5005.62</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5021.637984</v>
@@ -1957,13 +1957,13 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="57">
-        <v>5004.0190000000002</v>
+      <c r="C20" s="86">
+        <v>5004.1899999999996</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
-        <v>5020.0318608000007</v>
+        <v>5020.2034080000003</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="3"/>
@@ -1992,10 +1992,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="86">
         <v>5006.53</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5022.5508960000006</v>
@@ -2027,10 +2027,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="86">
         <v>5001.68</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5017.6853760000004</v>
@@ -2062,10 +2062,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="86">
         <v>5002</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5018.0064000000002</v>
@@ -2097,14 +2097,14 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="56">
         <f>AVERAGE(C14:D23)</f>
-        <v>5003.9508999999998</v>
+        <v>5003.9679999999989</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="15">
         <f>AVERAGE(E14:E23)</f>
-        <v>5019.9635428800011</v>
+        <v>5019.9806976000009</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="3"/>
@@ -2188,10 +2188,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2221,9 +2221,9 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="56">
         <f>E24</f>
-        <v>5019.9635428800011</v>
+        <v>5019.9806976000009</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="3"/>
@@ -2254,9 +2254,9 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="56">
         <f>STDEV(E14:E23)</f>
-        <v>2.0934228683034468</v>
+        <v>2.0947473685716078</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="3"/>
@@ -2287,9 +2287,9 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="57">
         <f>ABS((100*(C28-E12)/E12))</f>
-        <v>0.39927085760002229</v>
+        <v>0.39961395200001787</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="3"/>
@@ -2320,9 +2320,9 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="57">
         <f>ABS((100*C29/C28))</f>
-        <v>4.1701953618221502E-2</v>
+        <v>4.1728195679578695E-2</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="3"/>
@@ -2353,7 +2353,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="59">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -2385,7 +2385,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="60">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -2417,7 +2417,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="54" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -2477,10 +2477,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="50"/>
       <c r="E36" s="21">
         <v>2500</v>
@@ -2512,7 +2512,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -2896,7 +2896,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="51">
         <f>AVERAGE(C38:D47)</f>
         <v>2495.6030000000001</v>
       </c>
@@ -2928,12 +2928,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2959,10 +2959,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2992,7 +2992,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="56">
         <f>E48</f>
         <v>2503.5889296</v>
       </c>
@@ -3025,7 +3025,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <f>STDEV(E38:E47)</f>
         <v>2.2132836883421243</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="57">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.14355718400000114</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="58">
         <f>ABS((100*C52/C51))</f>
         <v>8.8404436613950921E-2</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="59">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -3156,7 +3156,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="60">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -3188,7 +3188,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="54" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -3248,10 +3248,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="50"/>
       <c r="E59" s="8">
         <v>500</v>
@@ -3283,7 +3283,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -3667,7 +3667,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="51">
         <v>507</v>
       </c>
       <c r="D71" s="50"/>
@@ -3729,10 +3729,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="50"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3762,7 +3762,7 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="56">
         <f>E71</f>
         <v>504.7992048000001</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="56">
         <f>STDEV(E61:E70)</f>
         <v>1.2975275884999111</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="57">
         <f>ABS((100*(C74-E59)/E59))</f>
         <v>0.95984096000001951</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="57">
         <f>ABS((100*C75/C74))</f>
         <v>0.25703835825454358</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="59">
         <v>8</v>
       </c>
       <c r="D78" s="50"/>
@@ -3926,7 +3926,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="60">
         <v>3</v>
       </c>
       <c r="D79" s="50"/>
@@ -3958,7 +3958,7 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="53" t="str">
+      <c r="C80" s="54" t="str">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4018,15 +4018,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="74"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4050,11 +4050,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1">
       <c r="A83" s="10"/>
-      <c r="B83" s="83"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="76"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4078,11 +4078,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1">
       <c r="A84" s="10"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="78"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="69"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4133,15 +4133,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="54"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="50"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="81" t="s">
+      <c r="E86" s="61" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="50"/>
@@ -4167,18 +4167,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="80"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="82" t="s">
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="74"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4201,12 +4201,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A88" s="75"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4229,12 +4229,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A89" s="75"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="76"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="66"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4257,12 +4257,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A90" s="75"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="76"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="66"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4285,12 +4285,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A91" s="75"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="76"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="66"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4313,12 +4313,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A92" s="75"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="76"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="66"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4341,12 +4341,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A93" s="75"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="76"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4369,12 +4369,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A94" s="75"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4397,12 +4397,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A95" s="77"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="78"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="69"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29766,85 +29766,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29854,6 +29775,85 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29894,11 +29894,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="71" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="76" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -29907,8 +29907,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29926,11 +29926,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="76" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="50"/>
@@ -29958,11 +29958,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="69">
+      <c r="D3" s="53"/>
+      <c r="E3" s="78">
         <v>5000</v>
       </c>
       <c r="F3" s="50"/>
@@ -29994,12 +29994,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30028,11 +30028,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64">
+      <c r="D5" s="53"/>
+      <c r="E5" s="80">
         <v>21.3</v>
       </c>
       <c r="F5" s="50"/>
@@ -30060,11 +30060,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64">
+      <c r="D6" s="68"/>
+      <c r="E6" s="80">
         <v>61.9</v>
       </c>
       <c r="F6" s="50"/>
@@ -30096,11 +30096,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="60">
         <v>22.209499999999998</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="50"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30128,11 +30128,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30160,11 +30160,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30192,12 +30192,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="85">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30221,12 +30221,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30252,10 +30252,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="50"/>
       <c r="E12" s="31">
         <v>5000</v>
@@ -30287,7 +30287,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -30321,10 +30321,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="90">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -30356,10 +30356,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="90">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -30391,10 +30391,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="90">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -30426,10 +30426,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="90">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -30461,10 +30461,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="90">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -30498,10 +30498,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="90">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -30533,10 +30533,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="90">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -30568,10 +30568,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="90">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -30603,10 +30603,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="90">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -30638,10 +30638,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="90">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -30673,7 +30673,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="56">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -30764,10 +30764,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30797,7 +30797,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="56">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -30830,7 +30830,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="56">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -30863,7 +30863,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="57">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -30896,7 +30896,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="57">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -30929,7 +30929,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="59">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -30961,7 +30961,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="60">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -30993,7 +30993,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="54" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31053,10 +31053,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="50"/>
       <c r="E36" s="32">
         <v>2500</v>
@@ -31088,7 +31088,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -31472,7 +31472,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="51">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -31504,12 +31504,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31535,10 +31535,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31568,7 +31568,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="56">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -31601,7 +31601,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -31634,7 +31634,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="57">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -31667,7 +31667,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="58">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -31700,7 +31700,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="59">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -31732,7 +31732,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="60">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -31764,7 +31764,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="54" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31824,12 +31824,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="50"/>
-      <c r="E59" s="91">
+      <c r="E59" s="88">
         <v>500</v>
       </c>
       <c r="F59" s="50"/>
@@ -31859,7 +31859,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -32275,7 +32275,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="51">
         <f>AVERAGE(C61:D70)</f>
         <v>506.392</v>
       </c>
@@ -32341,10 +32341,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="50"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32374,7 +32374,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="90"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="50"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32404,7 +32404,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="86"/>
       <c r="D75" s="50"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32434,7 +32434,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="56">
         <f>C75*C10</f>
         <v>0</v>
       </c>
@@ -32467,7 +32467,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="56">
         <f>ABS(E70-C76)/10</f>
         <v>50.938544300000004</v>
       </c>
@@ -32499,10 +32499,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="50"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32532,7 +32532,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="56">
         <f>F71</f>
         <v>559.00163790000011</v>
       </c>
@@ -32565,7 +32565,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="56">
         <f>STDEV(F61:F70)</f>
         <v>1.6198163793828375</v>
       </c>
@@ -32598,7 +32598,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="57">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>11.800327580000021</v>
       </c>
@@ -32631,7 +32631,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="57">
         <f>ABS((100*C80/C79))</f>
         <v>0.28976952294236508</v>
       </c>
@@ -32664,7 +32664,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="51">
+      <c r="C83" s="59">
         <v>8</v>
       </c>
       <c r="D83" s="50"/>
@@ -32696,7 +32696,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="52">
+      <c r="C84" s="60">
         <v>3</v>
       </c>
       <c r="D84" s="50"/>
@@ -32728,7 +32728,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="53" t="str">
+      <c r="C85" s="54" t="str">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -32788,15 +32788,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="74"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32820,11 +32820,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
       <c r="A88" s="10"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="76"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32848,11 +32848,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
       <c r="A89" s="10"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="78"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="69"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32903,15 +32903,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="50"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="81" t="s">
+      <c r="E91" s="61" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="50"/>
@@ -32937,18 +32937,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="80"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="82" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="73" t="s">
+      <c r="E92" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="74"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32971,12 +32971,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A93" s="75"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="76"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -32999,12 +32999,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A94" s="75"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -33027,12 +33027,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A95" s="75"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="76"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="66"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -33055,12 +33055,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A96" s="75"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="76"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="66"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33083,12 +33083,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A97" s="75"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="76"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="66"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33111,12 +33111,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A98" s="75"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="76"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="66"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33139,12 +33139,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A99" s="75"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="76"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="66"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33167,12 +33167,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A100" s="77"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="78"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="69"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58396,41 +58396,55 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58441,55 +58455,41 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59793,7 +59793,7 @@
       <c r="B16" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59808,7 +59808,7 @@
       <c r="B18" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59823,7 +59823,7 @@
       <c r="B20" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59833,14 +59833,14 @@
       <c r="B21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="53"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1">
       <c r="B23" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="61"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59853,13 +59853,13 @@
       <c r="B24" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1">
       <c r="B25" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1"/>

--- a/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\HANANI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8546551-35D3-4C02-861D-47D12E1C88CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C843C-EAA8-482E-AB11-56D6F388B37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,13 +929,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,57 +945,23 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,23 +972,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,8 +1296,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1320,11 +1320,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="71" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -1333,8 +1333,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1352,11 +1352,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="76" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="71" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="50"/>
@@ -1384,11 +1384,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="78">
+      <c r="D3" s="61"/>
+      <c r="E3" s="69">
         <v>5000</v>
       </c>
       <c r="F3" s="50"/>
@@ -1420,12 +1420,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1454,11 +1454,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="80">
+      <c r="D5" s="61"/>
+      <c r="E5" s="64">
         <v>21.3</v>
       </c>
       <c r="F5" s="50"/>
@@ -1486,11 +1486,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="80">
+      <c r="D6" s="63"/>
+      <c r="E6" s="64">
         <v>61.9</v>
       </c>
       <c r="F6" s="50"/>
@@ -1522,12 +1522,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="65">
         <v>21.5092</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
       <c r="I7" s="3"/>
@@ -1554,11 +1554,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1586,11 +1586,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1618,12 +1618,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="59">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0032000000000001</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1647,12 +1647,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1678,10 +1678,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="50"/>
       <c r="E12" s="8">
         <v>5000</v>
@@ -1713,7 +1713,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -1747,10 +1747,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="57">
         <v>5001.87</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5017.8759840000002</v>
@@ -1782,10 +1782,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="57">
         <v>5002.18</v>
       </c>
-      <c r="D15" s="87"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5018.1869760000009</v>
@@ -1817,10 +1817,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="57">
         <v>5003.75</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5019.7620000000006</v>
@@ -1852,10 +1852,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="57">
         <v>5007.58</v>
       </c>
-      <c r="D17" s="87"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5023.6042560000005</v>
@@ -1887,10 +1887,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="57">
         <v>5004.28</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.2936960000006</v>
@@ -1922,10 +1922,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="57">
         <v>5005.62</v>
       </c>
-      <c r="D19" s="87"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5021.637984</v>
@@ -1957,10 +1957,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="57">
         <v>5004.1899999999996</v>
       </c>
-      <c r="D20" s="87"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5020.2034080000003</v>
@@ -1992,10 +1992,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="57">
         <v>5006.53</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5022.5508960000006</v>
@@ -2027,10 +2027,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="57">
         <v>5001.68</v>
       </c>
-      <c r="D22" s="87"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5017.6853760000004</v>
@@ -2062,10 +2062,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="57">
         <v>5002</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5018.0064000000002</v>
@@ -2097,7 +2097,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="55">
         <f>AVERAGE(C14:D23)</f>
         <v>5003.9679999999989</v>
       </c>
@@ -2188,10 +2188,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2221,7 +2221,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="55">
         <f>E24</f>
         <v>5019.9806976000009</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="55">
         <f>STDEV(E14:E23)</f>
         <v>2.0947473685716078</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="56">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.39961395200001787</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="56">
         <f>ABS((100*C29/C28))</f>
         <v>4.1728195679578695E-2</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="51">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -2385,7 +2385,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="52">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -2417,7 +2417,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="54" t="str">
+      <c r="C34" s="53" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -2477,10 +2477,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="55"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="50"/>
       <c r="E36" s="21">
         <v>2500</v>
@@ -2512,7 +2512,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -2896,7 +2896,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="86">
         <f>AVERAGE(C38:D47)</f>
         <v>2495.6030000000001</v>
       </c>
@@ -2928,12 +2928,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2959,10 +2959,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="55"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2992,7 +2992,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C51" s="55">
         <f>E48</f>
         <v>2503.5889296</v>
       </c>
@@ -3025,7 +3025,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="53">
         <f>STDEV(E38:E47)</f>
         <v>2.2132836883421243</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="57">
+      <c r="C53" s="56">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.14355718400000114</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="87">
         <f>ABS((100*C52/C51))</f>
         <v>8.8404436613950921E-2</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="59">
+      <c r="C55" s="51">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -3156,7 +3156,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="60">
+      <c r="C56" s="52">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -3188,7 +3188,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="54" t="str">
+      <c r="C57" s="53" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -3248,10 +3248,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="55"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="50"/>
       <c r="E59" s="8">
         <v>500</v>
@@ -3283,7 +3283,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -3667,8 +3667,9 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="51">
-        <v>507</v>
+      <c r="C71" s="86">
+        <f>AVERAGE(C61:D70)</f>
+        <v>503.18900000000002</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="24">
@@ -3729,10 +3730,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="55"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="50"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3762,7 +3763,7 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="56">
+      <c r="C74" s="55">
         <f>E71</f>
         <v>504.7992048000001</v>
       </c>
@@ -3795,7 +3796,7 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C75" s="55">
         <f>STDEV(E61:E70)</f>
         <v>1.2975275884999111</v>
       </c>
@@ -3828,7 +3829,7 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="57">
+      <c r="C76" s="56">
         <f>ABS((100*(C74-E59)/E59))</f>
         <v>0.95984096000001951</v>
       </c>
@@ -3861,7 +3862,7 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="57">
+      <c r="C77" s="56">
         <f>ABS((100*C75/C74))</f>
         <v>0.25703835825454358</v>
       </c>
@@ -3894,7 +3895,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="59">
+      <c r="C78" s="51">
         <v>8</v>
       </c>
       <c r="D78" s="50"/>
@@ -3926,7 +3927,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="60">
+      <c r="C79" s="52">
         <v>3</v>
       </c>
       <c r="D79" s="50"/>
@@ -3958,7 +3959,7 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="54" t="str">
+      <c r="C80" s="53" t="str">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4018,15 +4019,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="73" t="s">
+      <c r="B82" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="74" t="s">
+      <c r="C82" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="64"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="74"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4050,11 +4051,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1">
       <c r="A83" s="10"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="66"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="76"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4078,11 +4079,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1">
       <c r="A84" s="10"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="69"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="78"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4133,15 +4134,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="55"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="50"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="61" t="s">
+      <c r="E86" s="81" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="50"/>
@@ -4167,18 +4168,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="70" t="s">
+      <c r="B87" s="80"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="62" t="s">
+      <c r="E87" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="64"/>
+      <c r="F87" s="74"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4201,12 +4202,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A88" s="65"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="66"/>
+      <c r="A88" s="75"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="76"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4229,12 +4230,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A89" s="65"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="66"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="76"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4257,12 +4258,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A90" s="65"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="66"/>
+      <c r="A90" s="75"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="76"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4285,12 +4286,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A91" s="65"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="66"/>
+      <c r="A91" s="75"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="76"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4313,12 +4314,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A92" s="65"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="66"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="76"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4341,12 +4342,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A93" s="65"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="66"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="76"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4369,12 +4370,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A94" s="65"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="66"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="76"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4397,12 +4398,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A95" s="67"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="69"/>
+      <c r="A95" s="77"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="78"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29766,6 +29767,85 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29775,85 +29855,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29894,11 +29895,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="71" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -29907,8 +29908,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29926,11 +29927,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="76" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="71" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="50"/>
@@ -29958,11 +29959,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="78">
+      <c r="D3" s="61"/>
+      <c r="E3" s="69">
         <v>5000</v>
       </c>
       <c r="F3" s="50"/>
@@ -29994,12 +29995,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30028,11 +30029,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="80">
+      <c r="D5" s="61"/>
+      <c r="E5" s="64">
         <v>21.3</v>
       </c>
       <c r="F5" s="50"/>
@@ -30060,11 +30061,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="80">
+      <c r="D6" s="63"/>
+      <c r="E6" s="64">
         <v>61.9</v>
       </c>
       <c r="F6" s="50"/>
@@ -30096,11 +30097,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="52">
         <v>22.209499999999998</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="50"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30128,11 +30129,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30160,11 +30161,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30192,12 +30193,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="59">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30221,12 +30222,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30252,10 +30253,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="50"/>
       <c r="E12" s="31">
         <v>5000</v>
@@ -30287,7 +30288,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -30321,10 +30322,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="88">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -30356,10 +30357,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="88">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -30391,10 +30392,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="88">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -30426,10 +30427,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="88">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -30461,10 +30462,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="90">
+      <c r="C18" s="88">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -30498,10 +30499,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="88">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -30533,10 +30534,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="88">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="91"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -30568,10 +30569,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="88">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -30603,10 +30604,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="88">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -30638,10 +30639,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="90">
+      <c r="C23" s="88">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -30673,7 +30674,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="55">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -30764,10 +30765,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30797,7 +30798,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="55">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -30830,7 +30831,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="55">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -30863,7 +30864,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="56">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -30896,7 +30897,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="56">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -30929,7 +30930,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="51">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -30961,7 +30962,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="52">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -30993,7 +30994,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="54" t="str">
+      <c r="C34" s="53" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31053,10 +31054,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="55"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="50"/>
       <c r="E36" s="32">
         <v>2500</v>
@@ -31088,7 +31089,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -31472,7 +31473,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="86">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -31504,12 +31505,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31535,10 +31536,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="55"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31568,7 +31569,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="56">
+      <c r="C51" s="55">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -31601,7 +31602,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="53">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -31634,7 +31635,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="57">
+      <c r="C53" s="56">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -31667,7 +31668,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="58">
+      <c r="C54" s="87">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -31700,7 +31701,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="59">
+      <c r="C55" s="51">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -31732,7 +31733,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="60">
+      <c r="C56" s="52">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -31764,7 +31765,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="54" t="str">
+      <c r="C57" s="53" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31824,12 +31825,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="55"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="50"/>
-      <c r="E59" s="88">
+      <c r="E59" s="91">
         <v>500</v>
       </c>
       <c r="F59" s="50"/>
@@ -31859,7 +31860,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -32275,7 +32276,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="86">
         <f>AVERAGE(C61:D70)</f>
         <v>506.392</v>
       </c>
@@ -32341,10 +32342,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="55"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="50"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32374,7 +32375,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="50"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32404,7 +32405,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="86"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="50"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32434,7 +32435,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="55">
         <f>C75*C10</f>
         <v>0</v>
       </c>
@@ -32467,7 +32468,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="55">
         <f>ABS(E70-C76)/10</f>
         <v>50.938544300000004</v>
       </c>
@@ -32499,10 +32500,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="55"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="50"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32532,7 +32533,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C79" s="55">
         <f>F71</f>
         <v>559.00163790000011</v>
       </c>
@@ -32565,7 +32566,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="56">
+      <c r="C80" s="55">
         <f>STDEV(F61:F70)</f>
         <v>1.6198163793828375</v>
       </c>
@@ -32598,7 +32599,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="57">
+      <c r="C81" s="56">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>11.800327580000021</v>
       </c>
@@ -32631,7 +32632,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="57">
+      <c r="C82" s="56">
         <f>ABS((100*C80/C79))</f>
         <v>0.28976952294236508</v>
       </c>
@@ -32664,7 +32665,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="59">
+      <c r="C83" s="51">
         <v>8</v>
       </c>
       <c r="D83" s="50"/>
@@ -32696,7 +32697,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="60">
+      <c r="C84" s="52">
         <v>3</v>
       </c>
       <c r="D84" s="50"/>
@@ -32728,7 +32729,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="54" t="str">
+      <c r="C85" s="53" t="str">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -32788,15 +32789,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="73" t="s">
+      <c r="B87" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="64"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="74"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32820,11 +32821,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
       <c r="A88" s="10"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="66"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="76"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32848,11 +32849,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
       <c r="A89" s="10"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="69"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="78"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32903,15 +32904,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="55"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="50"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="61" t="s">
+      <c r="E91" s="81" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="50"/>
@@ -32937,18 +32938,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="70" t="s">
+      <c r="B92" s="80"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="62" t="s">
+      <c r="E92" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="64"/>
+      <c r="F92" s="74"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32971,12 +32972,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A93" s="65"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="66"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="76"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -32999,12 +33000,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A94" s="65"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="66"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="76"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -33027,12 +33028,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A95" s="65"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="66"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="76"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -33055,12 +33056,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A96" s="65"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="66"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="76"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33083,12 +33084,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A97" s="65"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="66"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="76"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33111,12 +33112,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A98" s="65"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="66"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="76"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33139,12 +33140,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A99" s="65"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="66"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="76"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33167,12 +33168,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A100" s="67"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="69"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="78"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58396,55 +58397,41 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58455,41 +58442,55 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59793,7 +59794,7 @@
       <c r="B16" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59808,7 +59809,7 @@
       <c r="B18" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59823,7 +59824,7 @@
       <c r="B20" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59833,14 +59834,14 @@
       <c r="B21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="61"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1">
       <c r="B23" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59853,13 +59854,13 @@
       <c r="B24" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1">
       <c r="B25" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="61"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1"/>

--- a/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/HANANI/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\HANANI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C843C-EAA8-482E-AB11-56D6F388B37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D87EAB2-2B66-4241-B342-411C78DBACAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
   <si>
     <t xml:space="preserve"> Instrument</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>NZ02006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -929,12 +932,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,23 +949,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,58 +1010,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:D71"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1320,11 +1323,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="71" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="76" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -1333,8 +1336,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1352,11 +1355,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="76" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="50"/>
@@ -1384,11 +1387,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="69">
+      <c r="D3" s="53"/>
+      <c r="E3" s="78">
         <v>5000</v>
       </c>
       <c r="F3" s="50"/>
@@ -1420,12 +1423,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1454,11 +1457,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64">
+      <c r="D5" s="53"/>
+      <c r="E5" s="80">
         <v>21.3</v>
       </c>
       <c r="F5" s="50"/>
@@ -1486,11 +1489,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64">
+      <c r="D6" s="68"/>
+      <c r="E6" s="80">
         <v>61.9</v>
       </c>
       <c r="F6" s="50"/>
@@ -1522,12 +1525,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="82">
         <v>21.5092</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
       <c r="I7" s="3"/>
@@ -1554,11 +1557,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1586,11 +1589,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1618,12 +1621,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="85">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0032000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1647,12 +1650,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1678,10 +1681,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="50"/>
       <c r="E12" s="8">
         <v>5000</v>
@@ -1713,7 +1716,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -1747,10 +1750,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="86">
         <v>5001.87</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5017.8759840000002</v>
@@ -1782,10 +1785,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="86">
         <v>5002.18</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5018.1869760000009</v>
@@ -1817,10 +1820,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="86">
         <v>5003.75</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5019.7620000000006</v>
@@ -1852,10 +1855,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="86">
         <v>5007.58</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5023.6042560000005</v>
@@ -1887,10 +1890,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="86">
         <v>5004.28</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.2936960000006</v>
@@ -1922,10 +1925,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="86">
         <v>5005.62</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5021.637984</v>
@@ -1957,10 +1960,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="86">
         <v>5004.1899999999996</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5020.2034080000003</v>
@@ -1992,10 +1995,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="86">
         <v>5006.53</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5022.5508960000006</v>
@@ -2027,10 +2030,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="86">
         <v>5001.68</v>
       </c>
-      <c r="D22" s="58"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5017.6853760000004</v>
@@ -2062,10 +2065,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="86">
         <v>5002</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5018.0064000000002</v>
@@ -2097,7 +2100,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="56">
         <f>AVERAGE(C14:D23)</f>
         <v>5003.9679999999989</v>
       </c>
@@ -2188,10 +2191,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2221,7 +2224,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="56">
         <f>E24</f>
         <v>5019.9806976000009</v>
       </c>
@@ -2254,7 +2257,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="56">
         <f>STDEV(E14:E23)</f>
         <v>2.0947473685716078</v>
       </c>
@@ -2287,7 +2290,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="57">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.39961395200001787</v>
       </c>
@@ -2320,7 +2323,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="57">
         <f>ABS((100*C29/C28))</f>
         <v>4.1728195679578695E-2</v>
       </c>
@@ -2353,7 +2356,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="59">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -2385,7 +2388,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="60">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -2417,14 +2420,16 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="54" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2477,10 +2482,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="50"/>
       <c r="E36" s="21">
         <v>2500</v>
@@ -2512,7 +2517,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -2896,7 +2901,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="51">
         <f>AVERAGE(C38:D47)</f>
         <v>2495.6030000000001</v>
       </c>
@@ -2928,12 +2933,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2959,10 +2964,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2992,7 +2997,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="56">
         <f>E48</f>
         <v>2503.5889296</v>
       </c>
@@ -3025,7 +3030,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <f>STDEV(E38:E47)</f>
         <v>2.2132836883421243</v>
       </c>
@@ -3058,7 +3063,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="57">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.14355718400000114</v>
       </c>
@@ -3091,7 +3096,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="58">
         <f>ABS((100*C52/C51))</f>
         <v>8.8404436613950921E-2</v>
       </c>
@@ -3124,7 +3129,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="59">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -3156,7 +3161,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="60">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -3188,7 +3193,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="54" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -3248,10 +3253,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="50"/>
       <c r="E59" s="8">
         <v>500</v>
@@ -3283,7 +3288,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -3667,7 +3672,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="51">
         <f>AVERAGE(C61:D70)</f>
         <v>503.18900000000002</v>
       </c>
@@ -3730,10 +3735,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="50"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3763,7 +3768,7 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="56">
         <f>E71</f>
         <v>504.7992048000001</v>
       </c>
@@ -3796,7 +3801,7 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="56">
         <f>STDEV(E61:E70)</f>
         <v>1.2975275884999111</v>
       </c>
@@ -3829,7 +3834,7 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="57">
         <f>ABS((100*(C74-E59)/E59))</f>
         <v>0.95984096000001951</v>
       </c>
@@ -3862,7 +3867,7 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="57">
         <f>ABS((100*C75/C74))</f>
         <v>0.25703835825454358</v>
       </c>
@@ -3895,7 +3900,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="59">
         <v>8</v>
       </c>
       <c r="D78" s="50"/>
@@ -3927,7 +3932,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="60">
         <v>3</v>
       </c>
       <c r="D79" s="50"/>
@@ -3959,7 +3964,7 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="53" t="str">
+      <c r="C80" s="54" t="str">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4019,15 +4024,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="80"/>
-      <c r="E82" s="80"/>
-      <c r="F82" s="74"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4051,11 +4056,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1">
       <c r="A83" s="10"/>
-      <c r="B83" s="83"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="76"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="66"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4079,11 +4084,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1">
       <c r="A84" s="10"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="78"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="69"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4134,15 +4139,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="54"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="50"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="81" t="s">
+      <c r="E86" s="61" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="50"/>
@@ -4168,18 +4173,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="80"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="82" t="s">
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="73" t="s">
+      <c r="E87" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="74"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4202,12 +4207,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A88" s="75"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="76"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4230,12 +4235,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A89" s="75"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="75"/>
-      <c r="F89" s="76"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="66"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4258,12 +4263,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A90" s="75"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="76"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="66"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4286,12 +4291,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A91" s="75"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="76"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="66"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4314,12 +4319,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A92" s="75"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="76"/>
+      <c r="A92" s="65"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="66"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4342,12 +4347,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A93" s="75"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="76"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4370,12 +4375,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A94" s="75"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4398,12 +4403,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A95" s="77"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="78"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="69"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29767,85 +29772,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29855,6 +29781,85 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29895,11 +29900,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="71" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="76" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="50"/>
@@ -29908,8 +29913,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29927,11 +29932,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="76" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="50"/>
@@ -29959,11 +29964,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="69">
+      <c r="D3" s="53"/>
+      <c r="E3" s="78">
         <v>5000</v>
       </c>
       <c r="F3" s="50"/>
@@ -29995,12 +30000,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30029,11 +30034,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="64">
+      <c r="D5" s="53"/>
+      <c r="E5" s="80">
         <v>21.3</v>
       </c>
       <c r="F5" s="50"/>
@@ -30061,11 +30066,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64">
+      <c r="D6" s="68"/>
+      <c r="E6" s="80">
         <v>61.9</v>
       </c>
       <c r="F6" s="50"/>
@@ -30097,11 +30102,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="60">
         <v>22.209499999999998</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="50"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30129,11 +30134,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="50"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30161,11 +30166,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="50"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30193,12 +30198,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="85">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="50"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30222,12 +30227,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30253,10 +30258,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="50"/>
       <c r="E12" s="31">
         <v>5000</v>
@@ -30288,7 +30293,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="50"/>
@@ -30322,10 +30327,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="90">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -30357,10 +30362,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="90">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -30392,10 +30397,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="90">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -30427,10 +30432,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="90">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -30462,10 +30467,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="90">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -30499,10 +30504,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="90">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -30534,10 +30539,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="90">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -30569,10 +30574,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="90">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -30604,10 +30609,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="88">
+      <c r="C22" s="90">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -30639,10 +30644,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="90">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -30674,7 +30679,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="56">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -30765,10 +30770,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="50"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30798,7 +30803,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="56">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -30831,7 +30836,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="56">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -30864,7 +30869,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="57">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -30897,7 +30902,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="57">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -30930,7 +30935,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="59">
         <v>0.8</v>
       </c>
       <c r="D32" s="50"/>
@@ -30962,7 +30967,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="60">
         <v>0.3</v>
       </c>
       <c r="D33" s="50"/>
@@ -30994,7 +30999,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="54" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31054,10 +31059,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="50"/>
       <c r="E36" s="32">
         <v>2500</v>
@@ -31089,7 +31094,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="50"/>
@@ -31473,7 +31478,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="51">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -31505,12 +31510,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31536,10 +31541,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="50"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31569,7 +31574,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="56">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -31602,7 +31607,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="54">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -31635,7 +31640,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="57">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -31668,7 +31673,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="58">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -31701,7 +31706,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="59">
         <v>1.6</v>
       </c>
       <c r="D55" s="50"/>
@@ -31733,7 +31738,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="60">
         <v>0.6</v>
       </c>
       <c r="D56" s="50"/>
@@ -31765,7 +31770,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="54" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31825,12 +31830,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="50"/>
-      <c r="E59" s="91">
+      <c r="E59" s="88">
         <v>500</v>
       </c>
       <c r="F59" s="50"/>
@@ -31860,7 +31865,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="50"/>
@@ -32276,7 +32281,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="86">
+      <c r="C71" s="51">
         <f>AVERAGE(C61:D70)</f>
         <v>506.392</v>
       </c>
@@ -32342,10 +32347,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="50"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32375,7 +32380,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="90"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="50"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32405,7 +32410,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="86"/>
       <c r="D75" s="50"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32435,7 +32440,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="56">
         <f>C75*C10</f>
         <v>0</v>
       </c>
@@ -32468,7 +32473,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="56">
         <f>ABS(E70-C76)/10</f>
         <v>50.938544300000004</v>
       </c>
@@ -32500,10 +32505,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="50"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32533,7 +32538,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="56">
         <f>F71</f>
         <v>559.00163790000011</v>
       </c>
@@ -32566,7 +32571,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="56">
         <f>STDEV(F61:F70)</f>
         <v>1.6198163793828375</v>
       </c>
@@ -32599,7 +32604,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="57">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>11.800327580000021</v>
       </c>
@@ -32632,7 +32637,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="57">
         <f>ABS((100*C80/C79))</f>
         <v>0.28976952294236508</v>
       </c>
@@ -32665,7 +32670,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="51">
+      <c r="C83" s="59">
         <v>8</v>
       </c>
       <c r="D83" s="50"/>
@@ -32697,7 +32702,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="52">
+      <c r="C84" s="60">
         <v>3</v>
       </c>
       <c r="D84" s="50"/>
@@ -32729,7 +32734,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="53" t="str">
+      <c r="C85" s="54" t="str">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -32789,15 +32794,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="85" t="s">
+      <c r="B87" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="74"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="64"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32821,11 +32826,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1">
       <c r="A88" s="10"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="76"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32849,11 +32854,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1">
       <c r="A89" s="10"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="63"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="78"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="69"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32904,15 +32909,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="50"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="81" t="s">
+      <c r="E91" s="61" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="50"/>
@@ -32938,18 +32943,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="80"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="82" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="73" t="s">
+      <c r="E92" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="74"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32972,12 +32977,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A93" s="75"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="76"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="66"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -33000,12 +33005,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A94" s="75"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="76"/>
+      <c r="A94" s="65"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -33028,12 +33033,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A95" s="75"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="76"/>
+      <c r="A95" s="65"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="66"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -33056,12 +33061,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A96" s="75"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="76"/>
+      <c r="A96" s="65"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="66"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33084,12 +33089,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A97" s="75"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="76"/>
+      <c r="A97" s="65"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="66"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33112,12 +33117,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A98" s="75"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="76"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="66"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33140,12 +33145,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1">
-      <c r="A99" s="75"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="76"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="66"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33168,12 +33173,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A100" s="77"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="78"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="69"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58397,41 +58402,55 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58442,55 +58461,41 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59794,7 +59799,7 @@
       <c r="B16" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59809,7 +59814,7 @@
       <c r="B18" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59824,7 +59829,7 @@
       <c r="B20" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59834,14 +59839,14 @@
       <c r="B21" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="53"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1">
       <c r="B23" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="61"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59854,13 +59859,13 @@
       <c r="B24" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="53"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1">
       <c r="B25" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1"/>
